--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2743102.163602343</v>
+        <v>-2746031.238366134</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12462205.91562276</v>
+        <v>12460271.82852134</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16343589.90979478</v>
+        <v>16349756.67457442</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>242.4061890029334</v>
+        <v>250.9858676618295</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67.29694281615197</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>88.85706465605779</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.4479928815358</v>
+        <v>153.7714094203874</v>
       </c>
       <c r="T2" t="n">
-        <v>212.6125027391235</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>242.4061890029334</v>
+        <v>250.9858676618295</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>250.9858676618295</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>66.14260694488509</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.60208360226385</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.5876841475046</v>
       </c>
       <c r="T3" t="n">
-        <v>195.000011630976</v>
+        <v>194.9359795772608</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8560379713302</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>242.4061890029334</v>
+        <v>250.9858676618295</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>154.6603858641029</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.24527630223287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>128.9918304616212</v>
+        <v>128.3929887235663</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3556715895618</v>
+        <v>223.2987658845707</v>
       </c>
       <c r="U4" t="n">
-        <v>242.4061890029334</v>
+        <v>250.9858676618295</v>
       </c>
       <c r="V4" t="n">
-        <v>242.4061890029334</v>
+        <v>250.9858676618295</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>120.3624652902318</v>
       </c>
       <c r="X4" t="n">
-        <v>103.5700582255341</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,13 +902,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>25.67913628361556</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
       <c r="X5" t="n">
-        <v>72.36698404190619</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1032,16 +1032,16 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>191.2696694406315</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>100.077255155791</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>110.693472523613</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>79.63579206135118</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
-        <v>145.7818465999107</v>
+        <v>265.6962952122075</v>
       </c>
       <c r="I8" t="n">
         <v>78.16360657708299</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1215,22 +1215,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>7.397837941413282</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>5.737817290569923</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.17372043046393</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>127.9409606477172</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0.9312945272722378</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1424,7 +1424,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1531,16 +1531,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>83.06560892428168</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>108.2950343703266</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="18">
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>59.66990246485226</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="21">
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>126.464366564012</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>56.98118882652651</v>
+        <v>66.25628701154758</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.09059921808195</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>156.7416385096049</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>193.1208028352485</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2719,7 +2719,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
@@ -2731,7 +2731,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.9811888265258</v>
+        <v>56.9811888265257</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C31" t="n">
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.330825526174</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545294</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808189</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T31" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972051</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="32">
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808158</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972042</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3424,22 +3424,22 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541843</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
         <v>56.98118882652582</v>
@@ -3475,10 +3475,10 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972042</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,7 +3676,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541843</v>
       </c>
       <c r="I40" t="n">
         <v>56.9811888265258</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541838</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -3986,7 +3986,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4040,7 +4040,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4189,7 +4189,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972039</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>109.1471058839294</v>
+        <v>88.05557932825138</v>
       </c>
       <c r="C2" t="n">
-        <v>109.1471058839294</v>
+        <v>88.05557932825138</v>
       </c>
       <c r="D2" t="n">
-        <v>109.1471058839294</v>
+        <v>20.07886941294636</v>
       </c>
       <c r="E2" t="n">
-        <v>109.1471058839294</v>
+        <v>20.07886941294636</v>
       </c>
       <c r="F2" t="n">
-        <v>109.1471058839294</v>
+        <v>20.07886941294636</v>
       </c>
       <c r="G2" t="n">
-        <v>109.1471058839294</v>
+        <v>20.07886941294636</v>
       </c>
       <c r="H2" t="n">
-        <v>109.1471058839294</v>
+        <v>20.07886941294636</v>
       </c>
       <c r="I2" t="n">
-        <v>19.39249512023467</v>
+        <v>20.07886941294636</v>
       </c>
       <c r="J2" t="n">
-        <v>41.38225763724324</v>
+        <v>44.56341783364292</v>
       </c>
       <c r="K2" t="n">
-        <v>125.0777296383322</v>
+        <v>131.9979271978298</v>
       </c>
       <c r="L2" t="n">
-        <v>265.8111253735104</v>
+        <v>277.3699294102312</v>
       </c>
       <c r="M2" t="n">
-        <v>454.07358199531</v>
+        <v>470.7937295017248</v>
       </c>
       <c r="N2" t="n">
-        <v>649.996130366422</v>
+        <v>671.9611372758889</v>
       </c>
       <c r="O2" t="n">
-        <v>821.6649758364323</v>
+        <v>848.5825547534985</v>
       </c>
       <c r="P2" t="n">
-        <v>933.6793628870219</v>
+        <v>964.8238474307713</v>
       </c>
       <c r="Q2" t="n">
-        <v>969.6247560117337</v>
+        <v>1003.943470647318</v>
       </c>
       <c r="R2" t="n">
-        <v>969.6247560117337</v>
+        <v>1003.943470647318</v>
       </c>
       <c r="S2" t="n">
-        <v>813.6166823940208</v>
+        <v>848.6188146671287</v>
       </c>
       <c r="T2" t="n">
-        <v>598.8565786171283</v>
+        <v>848.6188146671287</v>
       </c>
       <c r="U2" t="n">
-        <v>598.8565786171283</v>
+        <v>848.6188146671287</v>
       </c>
       <c r="V2" t="n">
-        <v>354.0018422505289</v>
+        <v>595.0977362208363</v>
       </c>
       <c r="W2" t="n">
-        <v>354.0018422505289</v>
+        <v>595.0977362208363</v>
       </c>
       <c r="X2" t="n">
-        <v>354.0018422505289</v>
+        <v>341.5766577745438</v>
       </c>
       <c r="Y2" t="n">
-        <v>354.0018422505289</v>
+        <v>341.5766577745438</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>86.20320920597719</v>
+        <v>20.07886941294636</v>
       </c>
       <c r="C3" t="n">
-        <v>86.20320920597719</v>
+        <v>20.07886941294636</v>
       </c>
       <c r="D3" t="n">
-        <v>86.20320920597719</v>
+        <v>20.07886941294636</v>
       </c>
       <c r="E3" t="n">
-        <v>19.39249512023467</v>
+        <v>20.07886941294636</v>
       </c>
       <c r="F3" t="n">
-        <v>19.39249512023467</v>
+        <v>20.07886941294636</v>
       </c>
       <c r="G3" t="n">
-        <v>19.39249512023467</v>
+        <v>20.07886941294636</v>
       </c>
       <c r="H3" t="n">
-        <v>19.39249512023467</v>
+        <v>20.07886941294636</v>
       </c>
       <c r="I3" t="n">
-        <v>19.39249512023467</v>
+        <v>20.07886941294636</v>
       </c>
       <c r="J3" t="n">
-        <v>19.39249512023467</v>
+        <v>20.07886941294636</v>
       </c>
       <c r="K3" t="n">
-        <v>87.76939899939291</v>
+        <v>90.99537442422447</v>
       </c>
       <c r="L3" t="n">
-        <v>226.0331256541188</v>
+        <v>232.6739082073311</v>
       </c>
       <c r="M3" t="n">
-        <v>406.7372413537772</v>
+        <v>417.362942759763</v>
       </c>
       <c r="N3" t="n">
-        <v>606.632702209875</v>
+        <v>621.3487914131711</v>
       </c>
       <c r="O3" t="n">
-        <v>767.2782009463372</v>
+        <v>785.7361958620515</v>
       </c>
       <c r="P3" t="n">
-        <v>876.877310196415</v>
+        <v>898.33851433858</v>
       </c>
       <c r="Q3" t="n">
-        <v>969.6247560117337</v>
+        <v>1003.943470647318</v>
       </c>
       <c r="R3" t="n">
-        <v>948.8145705549015</v>
+        <v>1003.943470647318</v>
       </c>
       <c r="S3" t="n">
-        <v>948.8145705549015</v>
+        <v>854.8650018114548</v>
       </c>
       <c r="T3" t="n">
-        <v>751.8448618367439</v>
+        <v>657.9599719354338</v>
       </c>
       <c r="U3" t="n">
-        <v>751.8448618367439</v>
+        <v>429.8225598431811</v>
       </c>
       <c r="V3" t="n">
-        <v>516.6927536050011</v>
+        <v>429.8225598431811</v>
       </c>
       <c r="W3" t="n">
-        <v>271.8380172384017</v>
+        <v>176.3014813968887</v>
       </c>
       <c r="X3" t="n">
-        <v>271.8380172384017</v>
+        <v>20.07886941294636</v>
       </c>
       <c r="Y3" t="n">
-        <v>254.4185462260452</v>
+        <v>20.07886941294636</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.39249512023467</v>
+        <v>20.07886941294636</v>
       </c>
       <c r="C4" t="n">
-        <v>19.39249512023467</v>
+        <v>20.07886941294636</v>
       </c>
       <c r="D4" t="n">
-        <v>19.39249512023467</v>
+        <v>20.07886941294636</v>
       </c>
       <c r="E4" t="n">
-        <v>19.39249512023467</v>
+        <v>20.07886941294636</v>
       </c>
       <c r="F4" t="n">
-        <v>19.39249512023467</v>
+        <v>20.07886941294636</v>
       </c>
       <c r="G4" t="n">
-        <v>19.39249512023467</v>
+        <v>20.07886941294636</v>
       </c>
       <c r="H4" t="n">
-        <v>19.39249512023467</v>
+        <v>20.07886941294636</v>
       </c>
       <c r="I4" t="n">
-        <v>19.39249512023467</v>
+        <v>20.07886941294636</v>
       </c>
       <c r="J4" t="n">
-        <v>19.39249512023467</v>
+        <v>20.07886941294636</v>
       </c>
       <c r="K4" t="n">
-        <v>67.52574592625626</v>
+        <v>91.23722867618898</v>
       </c>
       <c r="L4" t="n">
-        <v>252.9523840639225</v>
+        <v>278.6241424317905</v>
       </c>
       <c r="M4" t="n">
-        <v>458.8478983414927</v>
+        <v>486.5864924975507</v>
       </c>
       <c r="N4" t="n">
-        <v>665.2822939104979</v>
+        <v>695.0385791193077</v>
       </c>
       <c r="O4" t="n">
-        <v>839.9415750791205</v>
+        <v>871.561524547907</v>
       </c>
       <c r="P4" t="n">
-        <v>965.8720812132029</v>
+        <v>999.0867174143491</v>
       </c>
       <c r="Q4" t="n">
-        <v>969.6247560117337</v>
+        <v>1003.943470647318</v>
       </c>
       <c r="R4" t="n">
-        <v>839.3299777676718</v>
+        <v>874.2535830477561</v>
       </c>
       <c r="S4" t="n">
-        <v>839.3299777676718</v>
+        <v>874.2535830477561</v>
       </c>
       <c r="T4" t="n">
-        <v>613.718188283266</v>
+        <v>648.6992740734422</v>
       </c>
       <c r="U4" t="n">
-        <v>368.8634519166666</v>
+        <v>395.1781956271498</v>
       </c>
       <c r="V4" t="n">
-        <v>124.0087155500671</v>
+        <v>141.6571171808573</v>
       </c>
       <c r="W4" t="n">
-        <v>124.0087155500671</v>
+        <v>20.07886941294636</v>
       </c>
       <c r="X4" t="n">
-        <v>19.39249512023467</v>
+        <v>20.07886941294636</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.39249512023467</v>
+        <v>20.07886941294636</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.00642392276842</v>
+        <v>320.3587892151035</v>
       </c>
       <c r="C5" t="n">
-        <v>41.00642392276842</v>
+        <v>320.3587892151035</v>
       </c>
       <c r="D5" t="n">
-        <v>41.00642392276842</v>
+        <v>320.3587892151035</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276842</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356494</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="G5" t="n">
         <v>21.09711040012049</v>
@@ -4565,52 +4565,52 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.2826908791767</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
         <v>142.2640879052547</v>
       </c>
       <c r="L5" t="n">
-        <v>294.517494751591</v>
+        <v>294.5174947515909</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030607</v>
+        <v>495.5981834030606</v>
       </c>
       <c r="N5" t="n">
         <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946886</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>900.5447187946886</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="U5" t="n">
-        <v>646.8597007358173</v>
+        <v>586.7364457822814</v>
       </c>
       <c r="V5" t="n">
-        <v>380.4820441686394</v>
+        <v>586.7364457822814</v>
       </c>
       <c r="W5" t="n">
-        <v>380.4820441686394</v>
+        <v>320.3587892151035</v>
       </c>
       <c r="X5" t="n">
-        <v>307.3840804899463</v>
+        <v>320.3587892151035</v>
       </c>
       <c r="Y5" t="n">
-        <v>307.3840804899463</v>
+        <v>320.3587892151035</v>
       </c>
     </row>
     <row r="6">
@@ -4647,46 +4647,46 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957456</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298711</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263948</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110289997</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557294</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891328</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006024</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006024</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>858.046441637462</v>
+        <v>839.7105578442523</v>
       </c>
       <c r="U6" t="n">
-        <v>629.9105956742754</v>
+        <v>611.5747118810658</v>
       </c>
       <c r="V6" t="n">
-        <v>436.7089093706072</v>
+        <v>376.4226036493231</v>
       </c>
       <c r="W6" t="n">
-        <v>436.7089093706072</v>
+        <v>122.1852469211215</v>
       </c>
       <c r="X6" t="n">
-        <v>228.8574091650744</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="Y6" t="n">
         <v>21.09711040012049</v>
@@ -4729,43 +4729,43 @@
         <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551007</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227042</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075538</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816802</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>943.0439315983344</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>736.2568970088458</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="T7" t="n">
-        <v>736.2568970088458</v>
+        <v>622.5994491745502</v>
       </c>
       <c r="U7" t="n">
-        <v>469.8792404416679</v>
+        <v>356.2217926073722</v>
       </c>
       <c r="V7" t="n">
-        <v>469.8792404416679</v>
+        <v>101.5373044014853</v>
       </c>
       <c r="W7" t="n">
-        <v>469.8792404416679</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="X7" t="n">
-        <v>241.8896895436506</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="Y7" t="n">
         <v>21.09711040012049</v>
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1061.515787985911</v>
+        <v>1171.944675321236</v>
       </c>
       <c r="C8" t="n">
-        <v>692.5532710454991</v>
+        <v>1171.944675321236</v>
       </c>
       <c r="D8" t="n">
-        <v>692.5532710454991</v>
+        <v>813.6789767144858</v>
       </c>
       <c r="E8" t="n">
-        <v>692.5532710454991</v>
+        <v>813.6789767144858</v>
       </c>
       <c r="F8" t="n">
-        <v>685.6077702962956</v>
+        <v>806.7334759652823</v>
       </c>
       <c r="G8" t="n">
-        <v>269.5767249997028</v>
+        <v>390.7024306686895</v>
       </c>
       <c r="H8" t="n">
         <v>122.3223344947425</v>
@@ -4829,25 +4829,25 @@
         <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U8" t="n">
-        <v>1782.718007305293</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="V8" t="n">
-        <v>1451.655119961722</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="W8" t="n">
-        <v>1451.655119961722</v>
+        <v>1562.084007297048</v>
       </c>
       <c r="X8" t="n">
-        <v>1451.655119961722</v>
+        <v>1562.084007297048</v>
       </c>
       <c r="Y8" t="n">
-        <v>1061.515787985911</v>
+        <v>1171.944675321236</v>
       </c>
     </row>
     <row r="9">
@@ -4863,19 +4863,19 @@
         <v>359.013624781985</v>
       </c>
       <c r="D9" t="n">
-        <v>359.013624781985</v>
+        <v>210.0792151207337</v>
       </c>
       <c r="E9" t="n">
-        <v>359.013624781985</v>
+        <v>50.84176011527819</v>
       </c>
       <c r="F9" t="n">
-        <v>212.4790668088699</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G9" t="n">
-        <v>75.60307302398584</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H9" t="n">
-        <v>69.80729798300612</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
         <v>43.36919653809306</v>
@@ -4984,25 +4984,25 @@
         <v>1486.355378693647</v>
       </c>
       <c r="R10" t="n">
-        <v>1377.190882465729</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="S10" t="n">
-        <v>1247.957588882176</v>
+        <v>1287.175893077873</v>
       </c>
       <c r="T10" t="n">
-        <v>1024.3537315748</v>
+        <v>1287.175893077873</v>
       </c>
       <c r="U10" t="n">
-        <v>735.2274105488234</v>
+        <v>998.0495720518968</v>
       </c>
       <c r="V10" t="n">
-        <v>735.2274105488234</v>
+        <v>743.36508384601</v>
       </c>
       <c r="W10" t="n">
-        <v>445.8102405118628</v>
+        <v>453.9479138090493</v>
       </c>
       <c r="X10" t="n">
-        <v>445.8102405118628</v>
+        <v>225.958362911032</v>
       </c>
       <c r="Y10" t="n">
         <v>225.0176613683328</v>
@@ -5021,40 +5021,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192639</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5078,10 +5078,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5179,13 +5179,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
         <v>93.81666304797187</v>
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,7 +5264,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,16 +5273,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5291,7 +5291,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5309,7 +5309,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5416,16 +5416,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>235.5284942057738</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E16" t="n">
-        <v>235.5284942057738</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5504,31 +5504,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,7 +5549,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2386.690454827884</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2386.690454827884</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2167.088989850826</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1878.013763195024</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1623.329274989137</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5741,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5768,7 +5768,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5835,10 +5835,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998286</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998286</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="23">
@@ -5981,16 +5981,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,19 +5999,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
         <v>4606.285157492578</v>
@@ -6023,10 +6023,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
         <v>3094.515198591809</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,22 +6060,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.957531531933</v>
+        <v>916.3099000622266</v>
       </c>
       <c r="C25" t="n">
-        <v>782.5512955656824</v>
+        <v>747.3737171343197</v>
       </c>
       <c r="D25" t="n">
-        <v>656.964603115003</v>
+        <v>597.2570777219839</v>
       </c>
       <c r="E25" t="n">
-        <v>533.5814564942661</v>
+        <v>449.3439841395908</v>
       </c>
       <c r="F25" t="n">
-        <v>411.2214559580121</v>
+        <v>302.4540366416804</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5553036345483</v>
+        <v>302.4540366416804</v>
       </c>
       <c r="H25" t="n">
-        <v>151.3734194384027</v>
+        <v>160.7422054838785</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2438.456847547835</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>2243.385329532432</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.840049838286</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.685508594056</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W25" t="n">
-        <v>1483.798285518751</v>
+        <v>1546.740494934014</v>
       </c>
       <c r="X25" t="n">
-        <v>1280.33868158239</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y25" t="n">
-        <v>1084.076049400516</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="26">
@@ -6206,10 +6206,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6266,7 +6266,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6309,10 +6309,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H28" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,13 +6385,13 @@
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L28" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M28" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N28" t="n">
         <v>1785.769117656414</v>
@@ -6455,52 +6455,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
         <v>3094.515198591809</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,22 +6534,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,52 +6595,52 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319336</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656829</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N31" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R31" t="n">
         <v>2596.781734931274</v>
@@ -6652,19 +6652,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="32">
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6740,7 +6740,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6786,7 +6786,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6838,16 +6838,16 @@
         <v>782.5512955656819</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6856,13 +6856,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,7 +6880,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
         <v>2438.456847547834</v>
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6929,58 +6929,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,22 +7008,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745237</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7108,28 +7108,28 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7154,7 +7154,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,16 +7251,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D40" t="n">
         <v>656.9646031150024</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7345,10 +7345,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
@@ -7391,10 +7391,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7403,16 +7403,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,37 +7421,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,22 +7482,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954147</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7591,25 +7591,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7628,10 +7628,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
         <v>793.7736536168611</v>
@@ -7640,16 +7640,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,37 +7658,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,22 +7719,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,58 +7780,58 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>65.15160634722207</v>
+        <v>63.2865296235199</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>5.778681865471469</v>
+        <v>4.277795609671387</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.10357592638012</v>
+        <v>81.06311598533414</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,7 +8137,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>52.82600134650912</v>
+        <v>74.53633578494878</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761162</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418308</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127288</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>140.3276526605472</v>
+        <v>131.7479740016511</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>287.386098804531</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>412.9079124266124</v>
+        <v>408.7100693598852</v>
       </c>
       <c r="H2" t="n">
-        <v>314.9487996779347</v>
+        <v>314.644726814677</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22604,13 +22604,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>85.34606946720149</v>
+        <v>76.7663908083054</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>118.7452330166395</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22632,7 +22632,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>91.50247351051586</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22717,10 +22717,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9034249120584</v>
       </c>
       <c r="H4" t="n">
-        <v>152.6762370898483</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22753,25 +22753,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.0634900937945</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>35.27384054303957</v>
       </c>
       <c r="V4" t="n">
-        <v>9.731454320894585</v>
+        <v>1.151775661998499</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>166.1605330463591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23419,16 +23419,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>65.54986409393068</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>40.32043864788574</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>6.70534424526943</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>65.54986409393069</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>92.12028678808279</v>
       </c>
     </row>
     <row r="23">
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>15.00954930701793</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>-1.435296326235402e-12</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1126208.672629278</v>
+        <v>1150854.015241506</v>
       </c>
     </row>
     <row r="3">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1447192.144667706</v>
+        <v>1422875.596862721</v>
       </c>
     </row>
     <row r="10">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655272.4305488375</v>
+        <v>665264.5711858229</v>
       </c>
       <c r="C3" t="n">
-        <v>23586.40082585042</v>
+        <v>14089.18501681366</v>
       </c>
       <c r="D3" t="n">
-        <v>291724.1809599827</v>
+        <v>291724.1809599825</v>
       </c>
       <c r="E3" t="n">
         <v>601443.2075742652</v>
@@ -26378,31 +26378,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>5.19711258155959e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363178</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63424.12491548351</v>
+        <v>85096.66435214334</v>
       </c>
       <c r="K3" t="n">
-        <v>5483.91781692065</v>
+        <v>3275.783079837995</v>
       </c>
       <c r="L3" t="n">
-        <v>70460.80690932019</v>
+        <v>70460.80690932012</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515979</v>
+        <v>157146.3805515981</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363178</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>19427.71799363172</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151743.4281754597</v>
+        <v>157049.7421696025</v>
       </c>
       <c r="C4" t="n">
-        <v>251227.3656190199</v>
+        <v>251227.3656190198</v>
       </c>
       <c r="D4" t="n">
         <v>168399.8133469395</v>
@@ -26430,31 +26430,31 @@
         <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179356</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179355</v>
       </c>
       <c r="I4" t="n">
-        <v>19157.89151488699</v>
+        <v>11167.03225179348</v>
       </c>
       <c r="J4" t="n">
-        <v>19157.89151488699</v>
+        <v>19157.89151488698</v>
       </c>
       <c r="K4" t="n">
         <v>19157.89151488699</v>
       </c>
       <c r="L4" t="n">
-        <v>19157.89151488699</v>
+        <v>19157.89151488697</v>
       </c>
       <c r="M4" t="n">
-        <v>19157.89151488704</v>
+        <v>19157.89151488692</v>
       </c>
       <c r="N4" t="n">
-        <v>19157.89151488699</v>
+        <v>19157.89151488698</v>
       </c>
       <c r="O4" t="n">
-        <v>19157.89151488697</v>
+        <v>19157.89151488698</v>
       </c>
       <c r="P4" t="n">
         <v>19157.89151488698</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61352.43404016447</v>
+        <v>62035.08532495964</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
@@ -26488,7 +26488,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
         <v>103164.1158539154</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-868368.2927644617</v>
+        <v>-884778.957546974</v>
       </c>
       <c r="C6" t="n">
-        <v>-337861.5696491365</v>
+        <v>-328364.3538400996</v>
       </c>
       <c r="D6" t="n">
-        <v>-545323.0761627944</v>
+        <v>-545323.0761627943</v>
       </c>
       <c r="E6" t="n">
-        <v>-713732.7696499658</v>
+        <v>-713767.5075754015</v>
       </c>
       <c r="F6" t="n">
-        <v>-112289.5620757006</v>
+        <v>-112324.3000011363</v>
       </c>
       <c r="G6" t="n">
-        <v>-112289.5620757006</v>
+        <v>-112324.3000011364</v>
       </c>
       <c r="H6" t="n">
-        <v>-112289.5620757006</v>
+        <v>-112324.3000011364</v>
       </c>
       <c r="I6" t="n">
-        <v>-141749.7253624342</v>
+        <v>-112324.3000011363</v>
       </c>
       <c r="J6" t="n">
-        <v>-185746.1322842859</v>
+        <v>-207418.6717209457</v>
       </c>
       <c r="K6" t="n">
-        <v>-127805.925185723</v>
+        <v>-125597.7904486404</v>
       </c>
       <c r="L6" t="n">
-        <v>-192782.8142781226</v>
+        <v>-192782.8142781225</v>
       </c>
       <c r="M6" t="n">
         <v>-279468.3879204004</v>
       </c>
       <c r="N6" t="n">
-        <v>-141749.7253624342</v>
+        <v>-122322.0073688024</v>
       </c>
       <c r="O6" t="n">
-        <v>-122322.0073688024</v>
+        <v>-141749.7253624341</v>
       </c>
       <c r="P6" t="n">
         <v>-122322.0073688024</v>
@@ -26698,31 +26698,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203973</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203971</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>595.7127407700057</v>
+        <v>603.098374822037</v>
       </c>
       <c r="C3" t="n">
-        <v>614.055013769478</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
         <v>853.7106645376841</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>242.4061890029334</v>
+        <v>250.9858676618295</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
@@ -26808,28 +26808,28 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26920,19 +26920,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.618527782440651e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26941,10 +26941,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>595.7127407700057</v>
+        <v>603.098374822037</v>
       </c>
       <c r="C3" t="n">
-        <v>18.34227299947236</v>
+        <v>10.95663894744121</v>
       </c>
       <c r="D3" t="n">
-        <v>239.6556507682061</v>
+        <v>239.6556507682059</v>
       </c>
       <c r="E3" t="n">
         <v>514.2648358039896</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>242.4061890029334</v>
+        <v>250.9858676618295</v>
       </c>
       <c r="C4" t="n">
-        <v>21.30769099857267</v>
+        <v>12.72801233967665</v>
       </c>
       <c r="D4" t="n">
         <v>278.4010767246571</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>242.4061890029334</v>
+        <v>250.9858676618292</v>
       </c>
       <c r="K4" t="n">
-        <v>21.30769099857267</v>
+        <v>12.72801233967688</v>
       </c>
       <c r="L4" t="n">
-        <v>278.4010767246571</v>
+        <v>278.4010767246568</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734849</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,19 +27157,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>4.618527782440651e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>242.4061890029334</v>
+        <v>250.9858676618295</v>
       </c>
       <c r="K4" t="n">
-        <v>21.30769099857267</v>
+        <v>12.72801233967665</v>
       </c>
       <c r="L4" t="n">
         <v>278.4010767246571</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.168152075563285</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>29.29233068907918</v>
+        <v>117.004733408289</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.4825304253033</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1540669007547</v>
+        <v>251.1516916214616</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,19 +27464,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0621727774034</v>
+        <v>136.0462866966123</v>
       </c>
       <c r="H3" t="n">
-        <v>99.8603550367271</v>
+        <v>99.70692894066508</v>
       </c>
       <c r="I3" t="n">
-        <v>45.28017044533446</v>
+        <v>44.73321547072648</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>19.61575307735295</v>
       </c>
       <c r="S3" t="n">
-        <v>147.8827611306211</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8570831082243</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>9.288794157986189</v>
+        <v>0.7091154990901032</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>51.11259933937458</v>
       </c>
       <c r="Y3" t="n">
-        <v>188.4374194750715</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27549,16 +27549,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9167432685456</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.5578247930797</v>
       </c>
       <c r="I4" t="n">
-        <v>123.1452659687799</v>
+        <v>122.7447466664173</v>
       </c>
       <c r="J4" t="n">
-        <v>17.41068855981486</v>
+        <v>16.46908075616489</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.2955927245772</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>43.85424565774403</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>122.139597163503</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619745</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,13 +27622,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>356.2512337886462</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032233</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>64.03837846862882</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X5" t="n">
-        <v>297.3641166365628</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27713,7 +27713,7 @@
         <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150561</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527771</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27752,16 +27752,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>41.53091770879374</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>105.6957300476865</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27792,10 +27792,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248086</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888212</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>16.81113036005095</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>22.54475050117141</v>
+        <v>22.54475050117134</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>206.8872062752398</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27853,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>158.5449581562723</v>
+        <v>38.63050954397556</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
         <v>208.0722578696039</v>
@@ -27910,10 +27910,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27935,22 +27935,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>137.6713744519706</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>88.76299597128522</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.17372043046393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>69.24673011189867</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>217.6533588248226</v>
       </c>
     </row>
     <row r="11">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="35">
@@ -29992,7 +29992,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.394825088522634</v>
+        <v>2.424516079686579</v>
       </c>
       <c r="H2" t="n">
-        <v>24.52600243783243</v>
+        <v>24.83007530109019</v>
       </c>
       <c r="I2" t="n">
-        <v>92.32649422526895</v>
+        <v>93.47115616211694</v>
       </c>
       <c r="J2" t="n">
-        <v>203.2577858569981</v>
+        <v>205.777771618299</v>
       </c>
       <c r="K2" t="n">
-        <v>304.6307318541612</v>
+        <v>308.407537271432</v>
       </c>
       <c r="L2" t="n">
-        <v>377.9213601570359</v>
+        <v>382.6068212451402</v>
       </c>
       <c r="M2" t="n">
-        <v>420.5103308250503</v>
+        <v>425.7238090772664</v>
       </c>
       <c r="N2" t="n">
-        <v>427.3146276078152</v>
+        <v>432.6124653886759</v>
       </c>
       <c r="O2" t="n">
-        <v>403.5010856338183</v>
+        <v>408.5036836212925</v>
       </c>
       <c r="P2" t="n">
-        <v>344.3788412609157</v>
+        <v>348.64844290403</v>
       </c>
       <c r="Q2" t="n">
-        <v>258.6141677781987</v>
+        <v>261.8204608002542</v>
       </c>
       <c r="R2" t="n">
-        <v>150.4339314669101</v>
+        <v>152.2990081906122</v>
       </c>
       <c r="S2" t="n">
-        <v>54.57207670470958</v>
+        <v>55.24866016585798</v>
       </c>
       <c r="T2" t="n">
-        <v>10.48334682500784</v>
+        <v>10.61331913882801</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1915860070818107</v>
+        <v>0.1939612863749263</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.281344385807182</v>
+        <v>1.297230466598344</v>
       </c>
       <c r="H3" t="n">
-        <v>12.37508919976936</v>
+        <v>12.52851529583138</v>
       </c>
       <c r="I3" t="n">
-        <v>44.11646240608061</v>
+        <v>44.6634173806886</v>
       </c>
       <c r="J3" t="n">
-        <v>121.0589448011952</v>
+        <v>122.5598310569953</v>
       </c>
       <c r="K3" t="n">
-        <v>206.9090186502764</v>
+        <v>209.4742723190843</v>
       </c>
       <c r="L3" t="n">
-        <v>278.2147097341428</v>
+        <v>281.6640098638202</v>
       </c>
       <c r="M3" t="n">
-        <v>324.6634437196531</v>
+        <v>328.6886142780102</v>
       </c>
       <c r="N3" t="n">
-        <v>333.2563190086846</v>
+        <v>337.3880238544526</v>
       </c>
       <c r="O3" t="n">
-        <v>304.8644249863254</v>
+        <v>308.6441277261419</v>
       </c>
       <c r="P3" t="n">
-        <v>244.6805783740048</v>
+        <v>247.7141230471873</v>
       </c>
       <c r="Q3" t="n">
-        <v>163.5624868619835</v>
+        <v>165.5903311398167</v>
       </c>
       <c r="R3" t="n">
-        <v>79.55575055037929</v>
+        <v>80.54208107529018</v>
       </c>
       <c r="S3" t="n">
-        <v>23.80040997321672</v>
+        <v>24.09548695633326</v>
       </c>
       <c r="T3" t="n">
-        <v>5.164717063845614</v>
+        <v>5.228749117560866</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08429897275047253</v>
+        <v>0.08534410964462792</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.074236089913125</v>
+        <v>1.087554446400395</v>
       </c>
       <c r="H4" t="n">
-        <v>9.550935417591244</v>
+        <v>9.669347714359878</v>
       </c>
       <c r="I4" t="n">
-        <v>32.30520895847835</v>
+        <v>32.70572826084096</v>
       </c>
       <c r="J4" t="n">
-        <v>75.94849155685792</v>
+        <v>76.89009936050789</v>
       </c>
       <c r="K4" t="n">
-        <v>124.8067020826339</v>
+        <v>126.3540529545185</v>
       </c>
       <c r="L4" t="n">
-        <v>159.709609222175</v>
+        <v>161.6896856039278</v>
       </c>
       <c r="M4" t="n">
-        <v>168.3913899852001</v>
+        <v>170.4791029025637</v>
       </c>
       <c r="N4" t="n">
-        <v>164.3874191046149</v>
+        <v>166.4254908750714</v>
       </c>
       <c r="O4" t="n">
-        <v>151.8383884179025</v>
+        <v>153.720877569394</v>
       </c>
       <c r="P4" t="n">
-        <v>129.9239721836746</v>
+        <v>131.5347668628258</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.95262385627085</v>
+        <v>91.0678545981276</v>
       </c>
       <c r="R4" t="n">
-        <v>48.30156091554831</v>
+        <v>48.90040265360318</v>
       </c>
       <c r="S4" t="n">
-        <v>18.72100531239509</v>
+        <v>18.95310794317778</v>
       </c>
       <c r="T4" t="n">
-        <v>4.589917838719714</v>
+        <v>4.646823543710775</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05859469581344324</v>
+        <v>0.05932115162183977</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425035</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649915</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350877</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016251</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167916</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.458039945929</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.471844198683</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658378</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465205</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702305</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990946</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458303</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N6" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542724</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825178</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736542</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944812</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020919</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582785</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244973</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779065</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M7" t="n">
-        <v>173.5762393840509</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734693</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
         <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919118</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350553</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715649</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339134</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32555,34 +32555,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>233.9389431948335</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,34 +32792,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948329</v>
       </c>
       <c r="N24" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33029,34 +33029,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>233.9389431948329</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33269,31 +33269,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>734.2678383622658</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33506,31 +33506,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33743,31 +33743,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622658</v>
       </c>
       <c r="N36" t="n">
-        <v>754.000239683233</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>245.8118639189577</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34129,34 +34129,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34217,31 +34217,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>734.2678383622658</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34454,31 +34454,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>754.0002396832324</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>22.2118813303118</v>
+        <v>24.73186709161271</v>
       </c>
       <c r="K2" t="n">
-        <v>84.54088080918069</v>
+        <v>88.31768622645143</v>
       </c>
       <c r="L2" t="n">
-        <v>142.1549451870487</v>
+        <v>146.8404062751529</v>
       </c>
       <c r="M2" t="n">
-        <v>190.1640975977776</v>
+        <v>195.3775758499936</v>
       </c>
       <c r="N2" t="n">
-        <v>197.9015640112243</v>
+        <v>203.199401792085</v>
       </c>
       <c r="O2" t="n">
-        <v>173.4028742121315</v>
+        <v>178.4054721996057</v>
       </c>
       <c r="P2" t="n">
-        <v>113.1458455056462</v>
+        <v>117.4154471487604</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.30847790374926</v>
+        <v>39.51477092580475</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>69.06757967591741</v>
+        <v>71.63283334472536</v>
       </c>
       <c r="L3" t="n">
-        <v>139.6603299542686</v>
+        <v>143.1096300839461</v>
       </c>
       <c r="M3" t="n">
-        <v>182.5294097976347</v>
+        <v>186.5545803559918</v>
       </c>
       <c r="N3" t="n">
-        <v>201.9146069253513</v>
+        <v>206.0463117711193</v>
       </c>
       <c r="O3" t="n">
-        <v>162.268180541881</v>
+        <v>166.0478832816975</v>
       </c>
       <c r="P3" t="n">
-        <v>110.7061709596746</v>
+        <v>113.739715632857</v>
       </c>
       <c r="Q3" t="n">
-        <v>93.68428870234207</v>
+        <v>106.6716730391293</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>48.61944525860767</v>
+        <v>71.87713056893193</v>
       </c>
       <c r="L4" t="n">
-        <v>187.2996344824911</v>
+        <v>189.2797108642439</v>
       </c>
       <c r="M4" t="n">
-        <v>207.9752669470407</v>
+        <v>210.0629798644042</v>
       </c>
       <c r="N4" t="n">
-        <v>208.5195914838435</v>
+        <v>210.5576632543</v>
       </c>
       <c r="O4" t="n">
-        <v>176.4235163319422</v>
+        <v>178.3060054834337</v>
       </c>
       <c r="P4" t="n">
-        <v>127.2025314485681</v>
+        <v>128.8133261277193</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.790580604576462</v>
+        <v>4.905811346433211</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.470283312177</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664455</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468043</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186563</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.058780602092</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.826860744151</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716376</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117347</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763038</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659561</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877692</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966405</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L7" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458915</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N7" t="n">
-        <v>213.5811567526979</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O7" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496797</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>91.80490927281522</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="N24" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,19 +36753,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,22 +36917,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>592.1338044402476</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986648</v>
       </c>
       <c r="Q31" t="n">
         <v>144.6869047919381</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,22 +37154,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,19 +37227,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,22 +37391,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402476</v>
       </c>
       <c r="N36" t="n">
-        <v>622.6585275998997</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>103.6778299969394</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>592.1338044402476</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>622.6585275998991</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
